--- a/dnf.xlsx
+++ b/dnf.xlsx
@@ -1,42 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>手续费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>货物价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点券价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驴价格(点券)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驴价格(金币)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入手金</t>
+    <t>手续费金币（驴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费点券（驴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴价格（点券）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴价格（金币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币（驴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点券（驴）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,7 +157,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>入手金</t>
+      <t>货品</t>
     </r>
     <r>
       <rPr>
@@ -58,7 +167,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> -&gt; </t>
     </r>
     <r>
       <rPr>
@@ -68,7 +177,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>驴</t>
+      <t>金币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
     </r>
     <r>
       <rPr>
@@ -78,19 +200,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve"> -&gt; </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入手点券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -99,7 +210,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>入手点券</t>
+      <t>点券</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货品</t>
     </r>
     <r>
       <rPr>
@@ -109,7 +233,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> -&gt; </t>
     </r>
     <r>
       <rPr>
@@ -119,34 +243,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>驴</t>
+      <t>点券</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手续费金币(驴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手续费点券(驴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,19 +280,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -205,17 +311,62 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -279,7 +430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +462,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +497,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,379 +673,848 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <f>A3*(1-M2/100)</f>
+        <v>1425</v>
+      </c>
+      <c r="C3">
+        <f>A3*(1-M3/100)-M8</f>
+        <v>1065</v>
+      </c>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>-360</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f>F3*M6/100*(1-M2/100)</f>
+        <v>2850</v>
+      </c>
+      <c r="H3">
+        <f>F3*M6/100*(1-M4/100)-M7</f>
+        <v>2190</v>
+      </c>
+      <c r="I3">
+        <f>H3-G3</f>
+        <v>-660</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3">
-        <v>2000</v>
-      </c>
-      <c r="D3">
-        <v>3000</v>
-      </c>
-      <c r="E3">
-        <v>4000</v>
-      </c>
-      <c r="F3">
-        <v>5000</v>
-      </c>
-      <c r="G3">
-        <v>6000</v>
-      </c>
-      <c r="H3">
-        <v>7000</v>
-      </c>
-      <c r="I3">
-        <v>8000</v>
-      </c>
-      <c r="J3">
-        <v>9000</v>
-      </c>
-      <c r="K3">
-        <v>10000</v>
-      </c>
-      <c r="L3">
-        <v>20000</v>
-      </c>
       <c r="M3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>A4*(1-M2/100)</f>
+        <v>2850</v>
+      </c>
+      <c r="C4">
+        <f>A4*(1-M3/100)-M8</f>
+        <v>2520</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D16" si="0">C4-B4</f>
+        <v>-330</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>F4*M6/100*(1-M2/100)</f>
+        <v>5700</v>
+      </c>
+      <c r="H4">
+        <f>F4*M6/100*(1-M4/100)-M7</f>
+        <v>5160</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I16" si="1">H4-G4</f>
+        <v>-540</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f>A5*(1-M2/100)</f>
+        <v>4275</v>
+      </c>
+      <c r="C5">
+        <f>A5*(1-M3/100)-M8</f>
+        <v>3975</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f>F5*M6/100*(1-M2/100)</f>
+        <v>8550</v>
+      </c>
+      <c r="H5">
+        <f>F5*M6/100*(1-M4/100)-M7</f>
+        <v>8130</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-420</v>
+      </c>
+      <c r="N5" s="5">
         <v>5</v>
       </c>
-      <c r="B4">
-        <f>B3-B3*B7/100</f>
-        <v>950</v>
-      </c>
-      <c r="C4">
-        <f>C3-C3*B7/100</f>
-        <v>1900</v>
-      </c>
-      <c r="D4" s="2">
-        <f>D3-D3*B7/100</f>
-        <v>2850</v>
-      </c>
-      <c r="E4">
-        <f>E3-E3*B7/100</f>
-        <v>3800</v>
-      </c>
-      <c r="F4">
-        <f>F3-F3*B7/100</f>
-        <v>4750</v>
-      </c>
-      <c r="G4">
-        <f>G3-G3*B7/100</f>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f>A6*(1-M2/100)</f>
         <v>5700</v>
       </c>
-      <c r="H4">
-        <f>H3-H3*B7/100</f>
-        <v>6650</v>
-      </c>
-      <c r="I4">
-        <f>I3-I3*B7/100</f>
-        <v>7600</v>
-      </c>
-      <c r="J4">
-        <f>J3-J3*B7/100</f>
+      <c r="C6">
+        <f>A6*(1-M3/100)-M8</f>
+        <v>5430</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-270</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f>F6*M6/100*(1-M2/100)</f>
+        <v>11400</v>
+      </c>
+      <c r="H6">
+        <f>F6*M6/100*(1-M4/100)-M7</f>
+        <v>11100</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>200</v>
+      </c>
+      <c r="N6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <f>A7*(1-M2/100)</f>
+        <v>7125</v>
+      </c>
+      <c r="C7">
+        <f>A7*(1-M3/100)-M8</f>
+        <v>6885</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-240</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <f>F7*M6/100*(1-M2/100)</f>
+        <v>14250</v>
+      </c>
+      <c r="H7">
+        <f>F7*M6/100*(1-M4/100)-M7</f>
+        <v>14070</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-180</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>780</v>
+      </c>
+      <c r="N7" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <f>A8*(1-M2/100)</f>
         <v>8550</v>
       </c>
-      <c r="K4">
-        <f>K3-K3*B7/100</f>
-        <v>9500</v>
-      </c>
-      <c r="L4">
-        <f>L3*(1-B7/100)</f>
-        <v>19000</v>
-      </c>
-      <c r="M4">
-        <f>M3*(1-B7/100)</f>
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <f>B3-B3*B8/100-B13</f>
-        <v>630</v>
-      </c>
-      <c r="C5">
-        <f>C3-C3*B8/100-B13</f>
-        <v>1600</v>
-      </c>
-      <c r="D5">
-        <f>D3-D3*B8/100-B13</f>
-        <v>2570</v>
-      </c>
-      <c r="E5">
-        <f>E3-E3*B8/100-B13</f>
-        <v>3540</v>
-      </c>
-      <c r="F5">
-        <f>F3-F3*B8/100-B13</f>
-        <v>4510</v>
-      </c>
-      <c r="G5">
-        <f>G3-G3*B8/100-B13</f>
-        <v>5480</v>
-      </c>
-      <c r="H5">
-        <f>H3-H3*B8/100-B13</f>
-        <v>6450</v>
-      </c>
-      <c r="I5">
-        <f>I3-I3*B8/100-B13</f>
-        <v>7420</v>
-      </c>
-      <c r="J5">
-        <f>J3-J3*B8/100-B13</f>
-        <v>8390</v>
-      </c>
-      <c r="K5">
-        <f>K3-K3*B8/100-B13</f>
-        <v>9360</v>
-      </c>
-      <c r="L5">
-        <f>L3*(1-B8/100)-B13</f>
-        <v>19060</v>
-      </c>
-      <c r="M5">
-        <f>M3*(1-B8/100)-B13</f>
-        <v>38460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="C8">
+        <f>A8*(1-M3/100)-M8</f>
+        <v>8340</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-210</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <f>F8*M6/100*(1-M2/100)</f>
+        <v>17100</v>
+      </c>
+      <c r="H8">
+        <f>F8*M6/100*(1-M4/100)-M7</f>
+        <v>17040</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f>M7*100/M6</f>
+        <v>390</v>
+      </c>
+      <c r="N8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <f>A9*(1-M2/100)</f>
+        <v>9975</v>
+      </c>
+      <c r="C9">
+        <f>A9*(1-M3/100)-M8</f>
+        <v>9795</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-180</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f>F9*M6/100*(1-M2/100)</f>
+        <v>19950</v>
+      </c>
+      <c r="H9">
+        <f>F9*M6/100*(1-M4/100)-M7</f>
+        <v>20010</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <f>A10*(1-M2/100)</f>
+        <v>11400</v>
+      </c>
+      <c r="C10">
+        <f>A10*(1-M3/100)-M8</f>
+        <v>11250</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-150</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f>F10*M6/100*(1-M2/100)</f>
+        <v>22800</v>
+      </c>
+      <c r="H10">
+        <f>F10*M6/100*(1-M4/100)-M7</f>
+        <v>22980</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <f>A11*(1-M2/100)</f>
+        <v>12825</v>
+      </c>
+      <c r="C11">
+        <f>A11*(1-M3/100)-M8</f>
+        <v>12705</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-120</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f>F11*M6/100*(1-M2/100)</f>
+        <v>25650</v>
+      </c>
+      <c r="H11">
+        <f>F11*M6/100*(1-M4/100)-M7</f>
+        <v>25950</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <f>A12*(1-M2/100)</f>
+        <v>14250</v>
+      </c>
+      <c r="C12">
+        <f>A12*(1-M3/100)-M8</f>
+        <v>14160</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f>F12*M6/100*(1-M2/100)</f>
+        <v>28500</v>
+      </c>
+      <c r="H12">
+        <f>F12*M6/100*(1-M4/100)-M7</f>
+        <v>28920</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f>A13*(1-M2/100)</f>
+        <v>15675</v>
+      </c>
+      <c r="C13">
+        <f>A13*(1-M3/100)-M8</f>
+        <v>15615</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <f>F13*M6/100*(1-M2/100)</f>
+        <v>31350</v>
+      </c>
+      <c r="H13">
+        <f>F13*M6/100*(1-M4/100)-M7</f>
+        <v>31890</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <f>A14*(1-M2/100)</f>
+        <v>17100</v>
+      </c>
+      <c r="C14">
+        <f>A14*(1-M3/100)-M8</f>
+        <v>17070</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <f>F14*M6/100*(1-M2/100)</f>
+        <v>34200</v>
+      </c>
+      <c r="H14">
+        <f>F14*M6/100*(1-M4/100)-M7</f>
+        <v>34860</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <f>A15*(1-M2/100)</f>
+        <v>18525</v>
+      </c>
+      <c r="C15">
+        <f>A15*(1-M3/100)-M8</f>
+        <v>18525</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15">
+        <f>F15*M6/100*(1-M2/100)</f>
+        <v>37050</v>
+      </c>
+      <c r="H15">
+        <f>F15*M6/100*(1-M4/100)-M7</f>
+        <v>37830</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <f>ROUNDUP(B12*100/B11,0)</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>1000</v>
+        <f>A16*(1-M2/100)</f>
+        <v>19950</v>
       </c>
       <c r="C16">
-        <v>2000</v>
+        <f>A16*(1-M3/100)-M8</f>
+        <v>19980</v>
       </c>
       <c r="D16">
-        <v>3000</v>
-      </c>
-      <c r="E16">
-        <v>4000</v>
-      </c>
-      <c r="F16">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>6000</v>
+        <f>F16*M6/100*(1-M2/100)</f>
+        <v>39900</v>
       </c>
       <c r="H16">
-        <v>7000</v>
+        <f>F16*M6/100*(1-M4/100)-M7</f>
+        <v>40800</v>
       </c>
       <c r="I16">
-        <v>8000</v>
-      </c>
-      <c r="J16">
-        <v>9000</v>
-      </c>
-      <c r="K16">
-        <v>10000</v>
-      </c>
-      <c r="L16">
-        <v>20000</v>
-      </c>
-      <c r="M16">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <f>B16/100*B11*(1-B7/100)</f>
-        <v>2185</v>
-      </c>
-      <c r="C17">
-        <f>C16/100*B11*(1-B7/100)</f>
-        <v>4370</v>
-      </c>
-      <c r="D17">
-        <f>D16/100*B11*(1-B7/100)</f>
-        <v>6555</v>
-      </c>
-      <c r="E17">
-        <f>E16/100*B11*(1-B7/100)</f>
-        <v>8740</v>
-      </c>
-      <c r="F17">
-        <f>F16/100*B11*(1-B7/100)</f>
-        <v>10925</v>
-      </c>
-      <c r="G17">
-        <f>G16/100*B11*(1-B7/100)</f>
-        <v>13110</v>
-      </c>
-      <c r="H17">
-        <f>H16/100*B11*(1-B7/100)</f>
-        <v>15295</v>
-      </c>
-      <c r="I17">
-        <f>I16/100*B11*(1-B7/100)</f>
-        <v>17480</v>
-      </c>
-      <c r="J17">
-        <f>J16/100*B11*(1-B7/100)</f>
-        <v>19665</v>
-      </c>
-      <c r="K17">
-        <f>K16/100*B11*(1-B7/100)</f>
-        <v>21850</v>
-      </c>
-      <c r="L17">
-        <f>L16/100*B11*(1-B7/100)</f>
-        <v>43700</v>
-      </c>
-      <c r="M17">
-        <f>M16/100*B11*(1-B7/100)</f>
-        <v>87400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <f>B16/100*B11*(1-B9/100)-B12</f>
-        <v>1497</v>
-      </c>
-      <c r="C18">
-        <f>C16/100*B11*(1-B9/100)-B12</f>
-        <v>3774</v>
-      </c>
-      <c r="D18">
-        <f>D16/100*B11*(1-B9/100)-B12</f>
-        <v>6051</v>
-      </c>
-      <c r="E18">
-        <f>E16/100*B11*(1-B9/100)-B12</f>
-        <v>8328</v>
-      </c>
-      <c r="F18">
-        <f>F16/100*B11*(1-B9/100)-B12</f>
-        <v>10605</v>
-      </c>
-      <c r="G18">
-        <f>G16/100*B11*(1-B9/100)-B12</f>
-        <v>12882</v>
-      </c>
-      <c r="H18">
-        <f>H16/100*B11*(1-B9/100)-B12</f>
-        <v>15159</v>
-      </c>
-      <c r="I18">
-        <f>I16/100*B11*(1-B9/100)-B12</f>
-        <v>17436</v>
-      </c>
-      <c r="J18">
-        <f>J16/100*B11*(1-B9/100)-B12</f>
-        <v>19713</v>
-      </c>
-      <c r="K18">
-        <f>K16/100*B11*(1-B9/100)-B12</f>
-        <v>21990</v>
-      </c>
-      <c r="L18">
-        <f>L16/100*B11*(1-B9/100)-B12</f>
-        <v>44760</v>
-      </c>
-      <c r="M18">
-        <f>M16/100*B11*(1-B9/100)-B12</f>
-        <v>90300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <f>A21*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>2707.5</v>
+      </c>
+      <c r="C21">
+        <f>A21*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>2100.9</v>
+      </c>
+      <c r="D21">
+        <f>C21-B21</f>
+        <v>-606.59999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <f>A22*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>5415</v>
+      </c>
+      <c r="C22">
+        <f>A22*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>4981.8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D34" si="2">C22-B22</f>
+        <v>-433.19999999999982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f>A23*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>8122.5</v>
+      </c>
+      <c r="C23">
+        <f>A23*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>7862.7000000000007</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>-259.79999999999927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <f>A24*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>10830</v>
+      </c>
+      <c r="C24">
+        <f>A24*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>10743.6</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>-86.399999999999636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f>A25*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>13537.5</v>
+      </c>
+      <c r="C25">
+        <f>A25*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>13624.5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <f>A26*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>16245</v>
+      </c>
+      <c r="C26">
+        <f>A26*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>16505.400000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>260.40000000000146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <f>A27*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>18952.5</v>
+      </c>
+      <c r="C27">
+        <f>A27*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>19386.3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>433.79999999999927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <f>A28*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>21660</v>
+      </c>
+      <c r="C28">
+        <f>A28*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>22267.200000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>607.20000000000073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <f>A29*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>24367.5</v>
+      </c>
+      <c r="C29">
+        <f>A29*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>25148.1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>780.59999999999854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <f>A30*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>27075</v>
+      </c>
+      <c r="C30">
+        <f>A30*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>28029</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <f>A31*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>29782.5</v>
+      </c>
+      <c r="C31">
+        <f>A31*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>30909.9</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>1127.4000000000015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f>A32*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>32490</v>
+      </c>
+      <c r="C32">
+        <f>A32*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>33790.800000000003</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>1300.8000000000029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <f>A33*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>35197.5</v>
+      </c>
+      <c r="C33">
+        <f>A33*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>36671.699999999997</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>1474.1999999999971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <f>A34*(1-M2/100)*M6/100*(1-M2/100)</f>
+        <v>37905</v>
+      </c>
+      <c r="C34">
+        <f>A34*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
+        <v>39552.6</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>1647.5999999999985</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D3:D16 I3:I16">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D34">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dnf.xlsx
+++ b/dnf.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\whenguycan\share\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -145,8 +150,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +316,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +351,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,26 +527,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -580,7 +587,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -633,60 +640,60 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <f>B3-B3*B8/100-B13</f>
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="C5">
         <f>C3-C3*B8/100-B13</f>
-        <v>1600</v>
+        <v>1651</v>
       </c>
       <c r="D5">
         <f>D3-D3*B8/100-B13</f>
-        <v>2570</v>
+        <v>2621</v>
       </c>
       <c r="E5">
         <f>E3-E3*B8/100-B13</f>
-        <v>3540</v>
+        <v>3591</v>
       </c>
       <c r="F5">
         <f>F3-F3*B8/100-B13</f>
-        <v>4510</v>
+        <v>4561</v>
       </c>
       <c r="G5">
         <f>G3-G3*B8/100-B13</f>
-        <v>5480</v>
+        <v>5531</v>
       </c>
       <c r="H5">
         <f>H3-H3*B8/100-B13</f>
-        <v>6450</v>
+        <v>6501</v>
       </c>
       <c r="I5">
         <f>I3-I3*B8/100-B13</f>
-        <v>7420</v>
+        <v>7471</v>
       </c>
       <c r="J5">
         <f>J3-J3*B8/100-B13</f>
-        <v>8390</v>
+        <v>8441</v>
       </c>
       <c r="K5">
         <f>K3-K3*B8/100-B13</f>
-        <v>9360</v>
+        <v>9411</v>
       </c>
       <c r="L5">
         <f>L3*(1-B8/100)-B13</f>
-        <v>19060</v>
+        <v>19111</v>
       </c>
       <c r="M5">
         <f>M3*(1-B8/100)-B13</f>
-        <v>38460</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>38511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -702,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -710,15 +717,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -726,16 +733,16 @@
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <f>ROUNDUP(B12*100/B11,0)</f>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -776,119 +783,119 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <f>B16/100*B11*(1-B7/100)</f>
-        <v>2185</v>
+        <v>2565</v>
       </c>
       <c r="C17">
         <f>C16/100*B11*(1-B7/100)</f>
-        <v>4370</v>
+        <v>5130</v>
       </c>
       <c r="D17">
         <f>D16/100*B11*(1-B7/100)</f>
-        <v>6555</v>
+        <v>7695</v>
       </c>
       <c r="E17">
         <f>E16/100*B11*(1-B7/100)</f>
-        <v>8740</v>
+        <v>10260</v>
       </c>
       <c r="F17">
         <f>F16/100*B11*(1-B7/100)</f>
-        <v>10925</v>
+        <v>12825</v>
       </c>
       <c r="G17">
         <f>G16/100*B11*(1-B7/100)</f>
-        <v>13110</v>
+        <v>15390</v>
       </c>
       <c r="H17">
         <f>H16/100*B11*(1-B7/100)</f>
-        <v>15295</v>
+        <v>17955</v>
       </c>
       <c r="I17">
         <f>I16/100*B11*(1-B7/100)</f>
-        <v>17480</v>
+        <v>20520</v>
       </c>
       <c r="J17">
         <f>J16/100*B11*(1-B7/100)</f>
-        <v>19665</v>
+        <v>23085</v>
       </c>
       <c r="K17">
         <f>K16/100*B11*(1-B7/100)</f>
-        <v>21850</v>
+        <v>25650</v>
       </c>
       <c r="L17">
         <f>L16/100*B11*(1-B7/100)</f>
-        <v>43700</v>
+        <v>51300</v>
       </c>
       <c r="M17">
         <f>M16/100*B11*(1-B7/100)</f>
-        <v>87400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>102600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18">
         <f>B16/100*B11*(1-B9/100)-B12</f>
-        <v>1497</v>
+        <v>1893</v>
       </c>
       <c r="C18">
         <f>C16/100*B11*(1-B9/100)-B12</f>
-        <v>3774</v>
+        <v>4566</v>
       </c>
       <c r="D18">
         <f>D16/100*B11*(1-B9/100)-B12</f>
-        <v>6051</v>
+        <v>7239</v>
       </c>
       <c r="E18">
         <f>E16/100*B11*(1-B9/100)-B12</f>
-        <v>8328</v>
+        <v>9912</v>
       </c>
       <c r="F18">
         <f>F16/100*B11*(1-B9/100)-B12</f>
-        <v>10605</v>
+        <v>12585</v>
       </c>
       <c r="G18">
         <f>G16/100*B11*(1-B9/100)-B12</f>
-        <v>12882</v>
+        <v>15258</v>
       </c>
       <c r="H18">
         <f>H16/100*B11*(1-B9/100)-B12</f>
-        <v>15159</v>
+        <v>17931</v>
       </c>
       <c r="I18">
         <f>I16/100*B11*(1-B9/100)-B12</f>
-        <v>17436</v>
+        <v>20604</v>
       </c>
       <c r="J18">
         <f>J16/100*B11*(1-B9/100)-B12</f>
-        <v>19713</v>
+        <v>23277</v>
       </c>
       <c r="K18">
         <f>K16/100*B11*(1-B9/100)-B12</f>
-        <v>21990</v>
+        <v>25950</v>
       </c>
       <c r="L18">
         <f>L16/100*B11*(1-B9/100)-B12</f>
-        <v>44760</v>
+        <v>52680</v>
       </c>
       <c r="M18">
         <f>M16/100*B11*(1-B9/100)-B12</f>
-        <v>90300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>106140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
   </sheetData>

--- a/dnf.xlsx
+++ b/dnf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\whenguycan\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -318,6 +318,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,25 +329,13 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -687,42 +677,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1239,24 +1229,24 @@
       <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1506,7 +1496,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:D16 I3:I16">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dnf.xlsx
+++ b/dnf.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\whenguycan\share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\whenguycan\share\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>手续费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +247,53 @@
       <t>点券</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>+7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+9</t>
+  </si>
+  <si>
+    <t>+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+11</t>
   </si>
 </sst>
 </file>
@@ -666,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -1508,4 +1556,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <v>41</v>
+      </c>
+      <c r="M2">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dnf.xlsx
+++ b/dnf.xlsx
@@ -783,26 +783,26 @@
       </c>
       <c r="C3">
         <f>A3*(1-M3/100)-M8</f>
-        <v>1065</v>
+        <v>1143</v>
       </c>
       <c r="D3">
         <f>C3-B3</f>
-        <v>-360</v>
+        <v>-282</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G3">
         <f>F3*M6/100*(1-M2/100)</f>
-        <v>2850</v>
+        <v>3562.5</v>
       </c>
       <c r="H3">
         <f>F3*M6/100*(1-M4/100)-M7</f>
-        <v>2190</v>
+        <v>2932.5</v>
       </c>
       <c r="I3">
         <f>H3-G3</f>
-        <v>-660</v>
+        <v>-630</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>1</v>
@@ -824,26 +824,26 @@
       </c>
       <c r="C4">
         <f>A4*(1-M3/100)-M8</f>
-        <v>2520</v>
+        <v>2598</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D16" si="0">C4-B4</f>
-        <v>-330</v>
+        <v>-252</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G4">
         <f>F4*M6/100*(1-M2/100)</f>
-        <v>5700</v>
+        <v>7125</v>
       </c>
       <c r="H4">
         <f>F4*M6/100*(1-M4/100)-M7</f>
-        <v>5160</v>
+        <v>6645</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I16" si="1">H4-G4</f>
-        <v>-540</v>
+        <v>-480</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>2</v>
@@ -865,26 +865,26 @@
       </c>
       <c r="C5">
         <f>A5*(1-M3/100)-M8</f>
-        <v>3975</v>
+        <v>4053</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>-222</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5">
         <f>F5*M6/100*(1-M2/100)</f>
-        <v>8550</v>
+        <v>10687.5</v>
       </c>
       <c r="H5">
         <f>F5*M6/100*(1-M4/100)-M7</f>
-        <v>8130</v>
+        <v>10357.5</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>-420</v>
+        <v>-330</v>
       </c>
       <c r="N5" s="5">
         <v>5</v>
@@ -900,32 +900,32 @@
       </c>
       <c r="C6">
         <f>A6*(1-M3/100)-M8</f>
-        <v>5430</v>
+        <v>5508</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-270</v>
+        <v>-192</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6">
         <f>F6*M6/100*(1-M2/100)</f>
-        <v>11400</v>
+        <v>14250</v>
       </c>
       <c r="H6">
         <f>F6*M6/100*(1-M4/100)-M7</f>
-        <v>11100</v>
+        <v>14070</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>-300</v>
+        <v>-180</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N6" s="5">
         <v>6</v>
@@ -941,26 +941,26 @@
       </c>
       <c r="C7">
         <f>A7*(1-M3/100)-M8</f>
-        <v>6885</v>
+        <v>6963</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-240</v>
+        <v>-162</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G7">
         <f>F7*M6/100*(1-M2/100)</f>
-        <v>14250</v>
+        <v>17812.5</v>
       </c>
       <c r="H7">
         <f>F7*M6/100*(1-M4/100)-M7</f>
-        <v>14070</v>
+        <v>17782.5</v>
       </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>-180</v>
+        <v>-30</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>4</v>
@@ -982,33 +982,33 @@
       </c>
       <c r="C8">
         <f>A8*(1-M3/100)-M8</f>
-        <v>8340</v>
+        <v>8418</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-210</v>
+        <v>-132</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G8">
         <f>F8*M6/100*(1-M2/100)</f>
-        <v>17100</v>
+        <v>21375</v>
       </c>
       <c r="H8">
         <f>F8*M6/100*(1-M4/100)-M7</f>
-        <v>17040</v>
+        <v>21495</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>-60</v>
+        <v>120</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M8">
         <f>M7*100/M6</f>
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="N8" s="5">
         <v>8</v>
@@ -1024,26 +1024,26 @@
       </c>
       <c r="C9">
         <f>A9*(1-M3/100)-M8</f>
-        <v>9795</v>
+        <v>9873</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-180</v>
+        <v>-102</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G9">
         <f>F9*M6/100*(1-M2/100)</f>
-        <v>19950</v>
+        <v>24937.5</v>
       </c>
       <c r="H9">
         <f>F9*M6/100*(1-M4/100)-M7</f>
-        <v>20010</v>
+        <v>25207.5</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1056,26 +1056,26 @@
       </c>
       <c r="C10">
         <f>A10*(1-M3/100)-M8</f>
-        <v>11250</v>
+        <v>11328</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-150</v>
+        <v>-72</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G10">
         <f>F10*M6/100*(1-M2/100)</f>
-        <v>22800</v>
+        <v>28500</v>
       </c>
       <c r="H10">
         <f>F10*M6/100*(1-M4/100)-M7</f>
-        <v>22980</v>
+        <v>28920</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1088,26 +1088,26 @@
       </c>
       <c r="C11">
         <f>A11*(1-M3/100)-M8</f>
-        <v>12705</v>
+        <v>12783</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-120</v>
+        <v>-42</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G11">
         <f>F11*M6/100*(1-M2/100)</f>
-        <v>25650</v>
+        <v>32062.5</v>
       </c>
       <c r="H11">
         <f>F11*M6/100*(1-M4/100)-M7</f>
-        <v>25950</v>
+        <v>32632.5</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1120,26 +1120,26 @@
       </c>
       <c r="C12">
         <f>A12*(1-M3/100)-M8</f>
-        <v>14160</v>
+        <v>14238</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-90</v>
+        <v>-12</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G12">
         <f>F12*M6/100*(1-M2/100)</f>
-        <v>28500</v>
+        <v>35625</v>
       </c>
       <c r="H12">
         <f>F12*M6/100*(1-M4/100)-M7</f>
-        <v>28920</v>
+        <v>36345</v>
       </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1152,26 +1152,26 @@
       </c>
       <c r="C13">
         <f>A13*(1-M3/100)-M8</f>
-        <v>15615</v>
+        <v>15693</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13">
         <f>F13*M6/100*(1-M2/100)</f>
-        <v>31350</v>
+        <v>39187.5</v>
       </c>
       <c r="H13">
         <f>F13*M6/100*(1-M4/100)-M7</f>
-        <v>31890</v>
+        <v>40057.5</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>540</v>
+        <v>870</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1184,26 +1184,26 @@
       </c>
       <c r="C14">
         <f>A14*(1-M3/100)-M8</f>
-        <v>17070</v>
+        <v>17148</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>48</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G14">
         <f>F14*M6/100*(1-M2/100)</f>
-        <v>34200</v>
+        <v>42750</v>
       </c>
       <c r="H14">
         <f>F14*M6/100*(1-M4/100)-M7</f>
-        <v>34860</v>
+        <v>43770</v>
       </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1216,26 +1216,26 @@
       </c>
       <c r="C15">
         <f>A15*(1-M3/100)-M8</f>
-        <v>18525</v>
+        <v>18603</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G15">
         <f>F15*M6/100*(1-M2/100)</f>
-        <v>37050</v>
+        <v>46312.5</v>
       </c>
       <c r="H15">
         <f>F15*M6/100*(1-M4/100)-M7</f>
-        <v>37830</v>
+        <v>47482.5</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>780</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1248,26 +1248,26 @@
       </c>
       <c r="C16">
         <f>A16*(1-M3/100)-M8</f>
-        <v>19980</v>
+        <v>20058</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G16">
         <f>F16*M6/100*(1-M2/100)</f>
-        <v>39900</v>
+        <v>49875</v>
       </c>
       <c r="H16">
         <f>F16*M6/100*(1-M4/100)-M7</f>
-        <v>40800</v>
+        <v>51195</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>900</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B21">
         <f>A21*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>2707.5</v>
+        <v>3384.375</v>
       </c>
       <c r="C21">
         <f>A21*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>2100.9</v>
+        <v>2821.125</v>
       </c>
       <c r="D21">
         <f>C21-B21</f>
-        <v>-606.59999999999991</v>
+        <v>-563.25</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1321,15 +1321,15 @@
       </c>
       <c r="B22">
         <f>A22*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>5415</v>
+        <v>6768.75</v>
       </c>
       <c r="C22">
         <f>A22*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>4981.8</v>
+        <v>6422.25</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22:D34" si="2">C22-B22</f>
-        <v>-433.19999999999982</v>
+        <v>-346.5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,15 +1338,15 @@
       </c>
       <c r="B23">
         <f>A23*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>8122.5</v>
+        <v>10153.125</v>
       </c>
       <c r="C23">
         <f>A23*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>7862.7000000000007</v>
+        <v>10023.375</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>-259.79999999999927</v>
+        <v>-129.75</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1355,15 +1355,15 @@
       </c>
       <c r="B24">
         <f>A24*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>10830</v>
+        <v>13537.5</v>
       </c>
       <c r="C24">
         <f>A24*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>10743.6</v>
+        <v>13624.5</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>-86.399999999999636</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1372,15 +1372,15 @@
       </c>
       <c r="B25">
         <f>A25*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>13537.5</v>
+        <v>16921.875</v>
       </c>
       <c r="C25">
         <f>A25*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>13624.5</v>
+        <v>17225.625</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>303.75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1389,15 +1389,15 @@
       </c>
       <c r="B26">
         <f>A26*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>16245</v>
+        <v>20306.25</v>
       </c>
       <c r="C26">
         <f>A26*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>16505.400000000001</v>
+        <v>20826.75</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>260.40000000000146</v>
+        <v>520.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1406,15 +1406,15 @@
       </c>
       <c r="B27">
         <f>A27*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>18952.5</v>
+        <v>23690.625</v>
       </c>
       <c r="C27">
         <f>A27*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>19386.3</v>
+        <v>24427.875</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>433.79999999999927</v>
+        <v>737.25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1423,15 +1423,15 @@
       </c>
       <c r="B28">
         <f>A28*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>21660</v>
+        <v>27075</v>
       </c>
       <c r="C28">
         <f>A28*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>22267.200000000001</v>
+        <v>28029</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>607.20000000000073</v>
+        <v>954</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1440,15 +1440,15 @@
       </c>
       <c r="B29">
         <f>A29*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>24367.5</v>
+        <v>30459.375</v>
       </c>
       <c r="C29">
         <f>A29*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>25148.1</v>
+        <v>31630.125</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>780.59999999999854</v>
+        <v>1170.75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,15 +1457,15 @@
       </c>
       <c r="B30">
         <f>A30*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>27075</v>
+        <v>33843.75</v>
       </c>
       <c r="C30">
         <f>A30*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>28029</v>
+        <v>35231.25</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>954</v>
+        <v>1387.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1474,15 +1474,15 @@
       </c>
       <c r="B31">
         <f>A31*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>29782.5</v>
+        <v>37228.125</v>
       </c>
       <c r="C31">
         <f>A31*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>30909.9</v>
+        <v>38832.375</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>1127.4000000000015</v>
+        <v>1604.25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1491,15 +1491,15 @@
       </c>
       <c r="B32">
         <f>A32*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>32490</v>
+        <v>40612.5</v>
       </c>
       <c r="C32">
         <f>A32*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>33790.800000000003</v>
+        <v>42433.5</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>1300.8000000000029</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1508,15 +1508,15 @@
       </c>
       <c r="B33">
         <f>A33*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>35197.5</v>
+        <v>43996.875</v>
       </c>
       <c r="C33">
         <f>A33*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>36671.699999999997</v>
+        <v>46034.625</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>1474.1999999999971</v>
+        <v>2037.75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,15 +1525,15 @@
       </c>
       <c r="B34">
         <f>A34*(1-M2/100)*M6/100*(1-M2/100)</f>
-        <v>37905</v>
+        <v>47381.25</v>
       </c>
       <c r="C34">
         <f>A34*(1-M3/100)*M6/100*(1-M4/100)-M7</f>
-        <v>39552.6</v>
+        <v>49635.75</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>1647.5999999999985</v>
+        <v>2254.5</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
